--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_46.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_46.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_8</t>
+          <t>model_1_46_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998975414871603</v>
+        <v>0.9497331441527426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8278095956967368</v>
+        <v>0.7465971761547392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8193139123178277</v>
+        <v>0.7364912109269559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996752626619159</v>
+        <v>0.8665948424414136</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004264862950131735</v>
+        <v>0.1762109950896908</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151438026439828</v>
+        <v>1.694505849865974</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6463036588578082</v>
+        <v>0.9425556593968052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001021031739780535</v>
+        <v>0.3195574658703716</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04308538669214427</v>
+        <v>1.403641700117115</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02065154461567399</v>
+        <v>0.4197749338510946</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006557344821744</v>
+        <v>0.9315515154420324</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02097678579939999</v>
+        <v>0.4263859694382638</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5198606503278</v>
+        <v>37.47214633247371</v>
       </c>
       <c r="O2" t="n">
-        <v>286.8550331935442</v>
+        <v>74.43672992069953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_9</t>
+          <t>model_1_46_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998989577972349</v>
+        <v>0.9497249807922845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8277856567630373</v>
+        <v>0.7464503007365459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8192820494871853</v>
+        <v>0.7360519324311503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996819626738298</v>
+        <v>0.8660699643807419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004205908665164821</v>
+        <v>0.1762396118361601</v>
       </c>
       <c r="G3" t="n">
-        <v>1.151598106199706</v>
+        <v>1.695488006463731</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6464176303555031</v>
+        <v>0.9441269331054711</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009999657149696456</v>
+        <v>0.3208147538645451</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04140825139923492</v>
+        <v>1.403589544637744</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02050831213231557</v>
+        <v>0.4198090182882689</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006466700976965</v>
+        <v>0.9315403993767278</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02083129754760863</v>
+        <v>0.4264205906712517</v>
       </c>
       <c r="N3" t="n">
-        <v>145.5477000205977</v>
+        <v>37.47182155792693</v>
       </c>
       <c r="O3" t="n">
-        <v>286.8828725638141</v>
+        <v>74.43640514615275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_6</t>
+          <t>model_1_46_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998940864544243</v>
+        <v>0.9497002937494792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8277832823216185</v>
+        <v>0.7459659174057661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818935122938335</v>
+        <v>0.7353271978180288</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996983531838274</v>
+        <v>0.8650715675331437</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004408679610150665</v>
+        <v>0.1763261525259493</v>
       </c>
       <c r="G4" t="n">
-        <v>1.151613984100407</v>
+        <v>1.698727080027036</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6476585665047832</v>
+        <v>0.9467192667940794</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009484310468671045</v>
+        <v>0.3232063043292362</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04496504291523045</v>
+        <v>1.403168906549949</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02099685597929048</v>
+        <v>0.4199120771375233</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006778466916842</v>
+        <v>0.9315067829780141</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02132753547180872</v>
+        <v>0.4265252725943607</v>
       </c>
       <c r="N4" t="n">
-        <v>145.4535302709562</v>
+        <v>37.47083971907274</v>
       </c>
       <c r="O4" t="n">
-        <v>286.7887028141726</v>
+        <v>74.43542330729856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_7</t>
+          <t>model_1_46_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998956464437899</v>
+        <v>0.9495591913354552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8277643435718173</v>
+        <v>0.7446190659419033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8190361678968221</v>
+        <v>0.731876897033431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996859699148847</v>
+        <v>0.8606853472873717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004343744636338142</v>
+        <v>0.1768207885314373</v>
       </c>
       <c r="G5" t="n">
-        <v>1.151740627607532</v>
+        <v>1.707733481967568</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6472971345471983</v>
+        <v>0.9590607926406516</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009873662389437332</v>
+        <v>0.3337130152551065</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04415014047033651</v>
+        <v>1.402176269965148</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02084165213301993</v>
+        <v>0.420500640346049</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006678627597445</v>
+        <v>0.9313146435206199</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02116988732010633</v>
+        <v>0.4271231050850734</v>
       </c>
       <c r="N5" t="n">
-        <v>145.4832071528917</v>
+        <v>37.4652371069989</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8183796961081</v>
+        <v>74.42982069522472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_5</t>
+          <t>model_1_46_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998926823080867</v>
+        <v>0.9494087054362185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8275516167457746</v>
+        <v>0.7430080286584937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8186661487960594</v>
+        <v>0.7298417430136492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997229201272788</v>
+        <v>0.8576553067997135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000446712757631555</v>
+        <v>0.1773483184436332</v>
       </c>
       <c r="G6" t="n">
-        <v>1.153163132872796</v>
+        <v>1.718506495699872</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6486206714156866</v>
+        <v>0.9663404205644006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000871188222985946</v>
+        <v>0.3409711458809441</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04766421053919605</v>
+        <v>1.401869375232614</v>
       </c>
       <c r="K6" t="n">
-        <v>0.021135580371297</v>
+        <v>0.4211274372961624</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006868332282451</v>
+        <v>0.9311097265514464</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02146844463431582</v>
+        <v>0.427759773460584</v>
       </c>
       <c r="N6" t="n">
-        <v>145.4271895405673</v>
+        <v>37.45927915875409</v>
       </c>
       <c r="O6" t="n">
-        <v>286.7623620837837</v>
+        <v>74.42386274697992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_4</t>
+          <t>model_1_46_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998875777742486</v>
+        <v>0.9493295715550607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.827482219657891</v>
+        <v>0.7426085717195656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.818369108482629</v>
+        <v>0.7283448377405893</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997277132182681</v>
+        <v>0.8558307516020515</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004679605160076164</v>
+        <v>0.1776257231014156</v>
       </c>
       <c r="G7" t="n">
-        <v>1.153627191519019</v>
+        <v>1.721177666089814</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6496831673934402</v>
+        <v>0.9716947639305812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008561178955002348</v>
+        <v>0.3453416683253213</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04878625593696236</v>
+        <v>1.402706855910148</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02163239505943844</v>
+        <v>0.4214566681183436</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007195022448087</v>
+        <v>0.9310019697771039</v>
       </c>
       <c r="M7" t="n">
-        <v>0.021973083657163</v>
+        <v>0.4280941893391045</v>
       </c>
       <c r="N7" t="n">
-        <v>145.3342532662217</v>
+        <v>37.45615324325846</v>
       </c>
       <c r="O7" t="n">
-        <v>286.6694258094381</v>
+        <v>74.42073683148428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_3</t>
+          <t>model_1_46_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998809803291752</v>
+        <v>0.9488642764148609</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8273991584406508</v>
+        <v>0.7403542715402017</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8180226247285672</v>
+        <v>0.7220974387384602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997257981757829</v>
+        <v>0.8477097793000976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004954225572564007</v>
+        <v>0.1792568201390771</v>
       </c>
       <c r="G8" t="n">
-        <v>1.154182622261166</v>
+        <v>1.736252181769319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6509225196914366</v>
+        <v>0.9940413479161895</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008621391284509925</v>
+        <v>0.3647945693728402</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0495420183318757</v>
+        <v>1.406957418700972</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02225808970366506</v>
+        <v>0.4233873169322354</v>
       </c>
       <c r="L8" t="n">
-        <v>1.00761725893279</v>
+        <v>0.9303683763947043</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02260863236657102</v>
+        <v>0.4300552439418742</v>
       </c>
       <c r="N8" t="n">
-        <v>145.2201990170507</v>
+        <v>37.43787150406106</v>
       </c>
       <c r="O8" t="n">
-        <v>286.5553715602671</v>
+        <v>74.40245509228689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_2</t>
+          <t>model_1_46_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998533710809586</v>
+        <v>0.9488404563136749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8270308420309533</v>
+        <v>0.7402489180300885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8164483283282988</v>
+        <v>0.7218243191939002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997357173488784</v>
+        <v>0.8473418395176086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006103467900373161</v>
+        <v>0.1793403217558459</v>
       </c>
       <c r="G9" t="n">
-        <v>1.156645555788753</v>
+        <v>1.736956681176554</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6565536866322468</v>
+        <v>0.9950182806906998</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008309514903967149</v>
+        <v>0.365675928884248</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04699940317830033</v>
+        <v>1.407168416402742</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02470519763202303</v>
+        <v>0.4234859168329519</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009384250818648</v>
+        <v>0.9303359405122381</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02509427979859014</v>
+        <v>0.4301553966924634</v>
       </c>
       <c r="N9" t="n">
-        <v>144.8029665081572</v>
+        <v>37.43694007869792</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1381390513736</v>
+        <v>74.40152366692374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_0</t>
+          <t>model_1_46_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998207715297864</v>
+        <v>0.9488171334509131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8268655852807787</v>
+        <v>0.740150105108879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8156347375014643</v>
+        <v>0.7215501821221482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997428832946941</v>
+        <v>0.8469758728700727</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007460432920963923</v>
+        <v>0.1794220802980564</v>
       </c>
       <c r="G10" t="n">
-        <v>1.157750628438109</v>
+        <v>1.737617443635673</v>
       </c>
       <c r="H10" t="n">
-        <v>0.659463853845127</v>
+        <v>0.995998853100976</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008084204868277513</v>
+        <v>0.3665525619666555</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0441448584170495</v>
+        <v>1.407403834514572</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02731379307413001</v>
+        <v>0.4235824362483133</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011470622093668</v>
+        <v>0.9303041817203923</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02774395801127154</v>
+        <v>0.4302534361921326</v>
       </c>
       <c r="N10" t="n">
-        <v>144.4014538542871</v>
+        <v>37.43602851669301</v>
       </c>
       <c r="O10" t="n">
-        <v>285.7366263975035</v>
+        <v>74.40061210491884</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_46_1</t>
+          <t>model_1_46_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998330585328987</v>
+        <v>0.9484779353393403</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8268439628647637</v>
+        <v>0.7392726776341013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8163070914720755</v>
+        <v>0.7176520982778412</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997141077594529</v>
+        <v>0.8419838943713763</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000694898313617588</v>
+        <v>0.1806111428675239</v>
       </c>
       <c r="G11" t="n">
-        <v>1.157895217633564</v>
+        <v>1.743484805199694</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6570588826775741</v>
+        <v>1.009942072988174</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008988958691281004</v>
+        <v>0.378510300542259</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04618122026516405</v>
+        <v>1.412166200896132</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02636092399020922</v>
+        <v>0.4249836971785199</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010684253894482</v>
+        <v>0.9298422949301656</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02677608219179863</v>
+        <v>0.431676765581243</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5434900688913</v>
+        <v>37.42281788149369</v>
       </c>
       <c r="O11" t="n">
-        <v>285.8786626121077</v>
+        <v>74.38740146971951</v>
       </c>
     </row>
   </sheetData>
